--- a/biology/Médecine/François_David_Hérissant/François_David_Hérissant.xlsx
+++ b/biology/Médecine/François_David_Hérissant/François_David_Hérissant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_David_H%C3%A9rissant</t>
+          <t>François_David_Hérissant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François David Hérissant est un médecin, anatomiste, et professeur de la Faculté de médecine de Paris, membre de l'Académie royale des sciences, né à Rouen le 29 septembre 1714, et mort à Paris le 21 août 1773 (à 58 ans).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_David_H%C3%A9rissant</t>
+          <t>François_David_Hérissant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jean-Baptiste Hérissant et de Marguerite Marion qui appartenaient à des anciennes familles parisiennes distinguées depuis longtemps, l'une dans la librairie, l'autre dans la jurisprudence et le barreau. La famille Hérissant était apparentée à Jean-Nicolas de La Hire.
 Le médecin Jacques-Bénigne Winslow était un ami de la famille. Au cours d'une visite de Winslow à Mme Hérissant qui avait une indisposition, François David Hérissant, qui avait 11 ans, lui a montré un oiseau qu'il avait disséqué. Winslow a alors prédit qu'il serait un excellent anatomiste, mais son père avait prévu de le former pour le barreau. Son père a espéré qu'il réussirait à le ramener à sa première décision, mais son fils ne s'est intéressé qu'à l'anatomie et la physique. Il a suivi l'étude des humanités mais il passait ses jours de congé chez Winslow qui lui permettait de le seconder et de suivre ses démonstrations anatomiques. À 15 ans, il fit ses études de philosophie mais son professeur s'aperçut qu'il était peu assidu. Son père le fit suivre et on observa qu'il suivait en fait les cours de botanique d'Antoine de Jussieu et de chimie de Gilles-François Boulduc et Louis Lémery au Jardin du roi, et était employé à suivre les pansements à l'Hôtel-Dieu. Son père décida de l'enfermer dans la maison d'un procureur pour qu'il fasse ses études de jurisprudence. Il y tint deux moins. Un de ses oncles, chanoine de Saint-Marcel, lui a offert l'asile pour qu'il continua les études qu'il voulait faire. Puis Winslow a obtenu de son père son consentement pour que le jeune Hérissant suive des cours de médecine.
